--- a/AAII_Financials/Quarterly/CVIA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVIA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>CVIA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,217 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>313300</v>
+      </c>
+      <c r="E8" s="3">
         <v>409000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>444900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>428200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>441300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>523400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>508400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>369800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>335900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>347800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>611400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E9" s="3">
         <v>332200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>346000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>361600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>359500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>405600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>355300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>260300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>234500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>244700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>449400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E10" s="3">
         <v>76800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>153100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>103100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,32 +984,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-116100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>280100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1003,8 +1022,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1012,52 +1031,58 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E15" s="3">
         <v>51900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>59200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>58100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>64000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>47600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1096,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1798700</v>
+      </c>
+      <c r="E17" s="3">
         <v>303700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>455000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>457200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>461300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>796500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>436900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>312700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>298000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>540900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1485400</v>
+      </c>
+      <c r="E18" s="3">
         <v>105300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-273100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>54300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1209,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1433900</v>
+      </c>
+      <c r="E21" s="3">
         <v>155200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-216900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>84900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>83600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1514700</v>
+      </c>
+      <c r="E23" s="3">
         <v>76400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-305700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="E24" s="3">
         <v>22500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1257300</v>
+      </c>
+      <c r="E26" s="3">
         <v>53900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-48100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-288800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="E27" s="3">
         <v>53800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-48100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-288800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,31 +1654,34 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>16400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>37500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>10100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1771,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="E33" s="3">
         <v>53800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-48100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-288800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="E35" s="3">
         <v>53800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-48100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-288800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2051,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E41" s="3">
         <v>340100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>155400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>284300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>308100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,38 +2143,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E43" s="3">
         <v>281400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>317400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>340300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>307600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>351700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>453100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>302800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>247700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,38 +2190,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E44" s="3">
         <v>139100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>151800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>160500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>163000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>167700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>183200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>80000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,38 +2237,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E45" s="3">
         <v>26000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>149800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2284,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E46" s="3">
         <v>786500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>731100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>563500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>625600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>698800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>793500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>716400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>718900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2378,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1578500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3009500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3079500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3223800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2834400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2772300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2653800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1256200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1136100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,38 +2425,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E49" s="3">
         <v>180500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>188000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>224600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>268800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>295300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>642400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>79100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2566,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E52" s="3">
         <v>37700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2660,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2446500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4014200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4036800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4043400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3756100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3804200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4120600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2064300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2040100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2747,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E57" s="3">
         <v>97100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>125400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>145100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>133900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>185800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>88000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,38 +2792,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E58" s="3">
         <v>14500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,38 +2839,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E59" s="3">
         <v>195400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>239400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>177100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>130200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>121400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2886,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>314400</v>
+      </c>
+      <c r="E60" s="3">
         <v>307000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>373000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>318300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>290700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>258200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>327100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>214800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>250300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +2933,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1539100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1604100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1607000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1611200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1612900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1612400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1615700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>366900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +2980,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>415900</v>
+      </c>
+      <c r="E62" s="3">
         <v>682400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>687400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>708600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>397600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>448200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>414700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>201700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3168,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2594200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2668000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2638700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2301700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2319400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2358000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>783500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>814800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3422,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>357900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1615100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1561300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1595700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1648000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1696100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1984900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1964000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1918500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3610,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1420000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1368800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1404800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1454400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1484900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1762600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1280800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1225300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="E81" s="3">
         <v>53800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-48100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-288800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3824,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E83" s="3">
         <v>51900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4104,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E89" s="3">
         <v>17400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-55100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4172,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4311,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E94" s="3">
         <v>217800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-165200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4180,19 +4413,22 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-50000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4565,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-46900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E102" s="3">
         <v>228000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>74900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-96800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-147900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
